--- a/data/annotations/new_annotation_structure_out/iteration_7/iteration_7_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_7/iteration_7_mistral-large-2411-2.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
